--- a/Results/RFE/Swallowing/noMFCCs/swallowing_noMFCCs_vocali_rfe.xlsx
+++ b/Results/RFE/Swallowing/noMFCCs/swallowing_noMFCCs_vocali_rfe.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Validation</t>
+          <t>F1 train</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8379130673248321</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="3">
@@ -617,7 +617,7 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7395721925133689</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -672,7 +672,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8336910148674855</v>
+        <v>0.8767123287671232</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6365079365079366</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'activation': 'tanh', 'alpha': 0.0001, 'hidden_layer_sizes': (16, 8), 'learning_rate': 'constant'}</t>
+          <t>{'activation': 'tanh', 'alpha': 0.0001, 'hidden_layer_sizes': (64, 32), 'learning_rate': 'constant'}</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -752,37 +752,37 @@
         </is>
       </c>
       <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9</v>
+      </c>
+      <c r="G6" t="n">
         <v>2</v>
       </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-      <c r="G6" t="n">
-        <v>7</v>
-      </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5711904761904762</v>
+        <v>0.631578947368421</v>
       </c>
     </row>
     <row r="7">
@@ -837,7 +837,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9104072398190045</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -892,7 +892,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7714219114219114</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -947,7 +947,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8366472742943329</v>
+        <v>0.9859154929577465</v>
       </c>
     </row>
     <row r="10">
@@ -1002,7 +1002,7 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6977466977466978</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{'activation': 'relu', 'alpha': 0.0001, 'hidden_layer_sizes': (16, 8), 'learning_rate': 'constant'}</t>
+          <t>{'activation': 'tanh', 'alpha': 0.0001, 'hidden_layer_sizes': (64,), 'learning_rate': 'constant'}</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1027,37 +1027,37 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="N11" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5792207792207792</v>
+        <v>0.7536231884057971</v>
       </c>
     </row>
     <row r="12">
@@ -1112,7 +1112,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="O12" t="n">
-        <v>0.9406593406593406</v>
+        <v>0.9565217391304348</v>
       </c>
     </row>
     <row r="13">
@@ -1167,7 +1167,7 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="O13" t="n">
-        <v>0.858095238095238</v>
+        <v>0.9705882352941176</v>
       </c>
     </row>
     <row r="14">
@@ -1222,7 +1222,7 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="O14" t="n">
-        <v>0.8695238095238095</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1277,7 +1277,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="O15" t="n">
-        <v>0.7916083916083916</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>{'activation': 'tanh', 'alpha': 0.0001, 'hidden_layer_sizes': (8,), 'learning_rate': 'constant'}</t>
+          <t>{'activation': 'tanh', 'alpha': 0.0001, 'hidden_layer_sizes': (64, 32), 'learning_rate': 'constant'}</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1302,37 +1302,37 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="N16" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6733333333333332</v>
+        <v>0.7792207792207793</v>
       </c>
     </row>
   </sheetData>
